--- a/changes/g3-lowers.xlsx
+++ b/changes/g3-lowers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC01538-8F15-402B-ACBF-62D79F0D5F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF912AC-D24E-4E3C-A0BE-243087B830EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1261,7 @@
         <v>0.43</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>-7.3999999999999995</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-14.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1512,43 +1512,43 @@
         <v>4</v>
       </c>
       <c r="D18" s="1">
-        <f>D3+D13</f>
+        <f t="shared" ref="D18:M18" si="1">D3+D13</f>
         <v>0.63</v>
       </c>
       <c r="E18" s="1">
-        <f>E3+E13</f>
+        <f t="shared" si="1"/>
         <v>-3</v>
       </c>
       <c r="F18" s="1">
-        <f>F3+F13</f>
+        <f t="shared" si="1"/>
         <v>-4</v>
       </c>
       <c r="G18" s="1">
-        <f>G3+G13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <f>H3+H13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <f>I3+I13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J18" s="1">
-        <f>J3+J13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <f>K3+K13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <f>L3+L13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <f>M3+M13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="1">
@@ -1562,47 +1562,47 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:N26" si="1">C4+C$13</f>
+        <f t="shared" ref="C19:N25" si="2">C4+C$13</f>
         <v>6</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:M19" si="2">D4+D13</f>
+        <f t="shared" ref="D19:M19" si="3">D4+D13</f>
         <v>0.65999999999999992</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="N19" s="1">
@@ -1615,47 +1615,47 @@
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:N20" si="3">D5+D13</f>
+        <f t="shared" ref="D20:M20" si="4">D5+D13</f>
         <v>0.61</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="N20" s="1">
@@ -1673,43 +1673,43 @@
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" ref="D21:N21" si="4">D6+D$16</f>
+        <f t="shared" ref="D21:M21" si="5">D6+D$16</f>
         <v>0.57999999999999996</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2050</v>
       </c>
       <c r="N21" s="1">
@@ -1742,24 +1742,47 @@
         <v>24</v>
       </c>
       <c r="C23" s="1">
+        <f>C8</f>
         <v>0</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" ref="D23:N23" si="6">D8</f>
         <v>0.4</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="M23" s="1">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
@@ -1772,29 +1795,52 @@
         <v>28</v>
       </c>
       <c r="C24" s="1">
+        <f>C9</f>
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.44</v>
+        <f t="shared" ref="D24:M24" si="7">D9</f>
+        <v>0.43</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="M24" s="1">
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
-        <v>-7.6000000000000005</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1802,52 +1848,52 @@
         <v>30</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1750</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="1"/>
-        <v>-6.1999999999999975</v>
+        <f t="shared" si="0"/>
+        <v>-6.2000000000000011</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1859,48 +1905,48 @@
         <v>2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26:N26" si="5">D11+D$16</f>
+        <f t="shared" ref="D26:M26" si="8">D11+D$16</f>
         <v>0.48000000000000004</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-3</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1800</v>
       </c>
       <c r="N26" s="1">
         <f t="shared" si="0"/>
-        <v>-5.2000000000000011</v>
+        <v>-4.6000000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">

--- a/changes/g3-lowers.xlsx
+++ b/changes/g3-lowers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF912AC-D24E-4E3C-A0BE-243087B830EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB66C75-971E-41C7-BF00-0BA811C6F3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1291,13 +1291,13 @@
         <v>-1</v>
       </c>
       <c r="D10" s="1">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>-13.399999999999999</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1324,10 +1324,10 @@
         <v>-3</v>
       </c>
       <c r="D11" s="1">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:N25" si="2">C4+C$13</f>
+        <f t="shared" ref="C19:M25" si="2">C4+C$13</f>
         <v>6</v>
       </c>
       <c r="D19" s="1">
@@ -1746,8 +1746,8 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" ref="D23:N23" si="6">D8</f>
-        <v>0.4</v>
+        <f t="shared" ref="D23:M23" si="6">D8</f>
+        <v>0.38</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="6"/>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="N23" s="1">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" ref="D24:M24" si="7">D9</f>
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="7"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="N24" s="1">
         <f t="shared" si="0"/>
-        <v>-6.6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1853,15 +1853,15 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="2"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="N25" s="1">
         <f t="shared" si="0"/>
-        <v>-6.2000000000000011</v>
+        <v>-5.4000000000000012</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1906,11 +1906,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" ref="D26:M26" si="8">D11+D$16</f>
-        <v>0.48000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="8"/>
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="8"/>
